--- a/GithubMedia/Расчетная таблица.xlsx
+++ b/GithubMedia/Расчетная таблица.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity projects\Student Simulator\GithubMedia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity projects\Prototypes\Idle game\GithubMedia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Прокачка героя" sheetId="1" r:id="rId1"/>
@@ -2772,7 +2772,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3058,8 +3058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3227,7 +3227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/GithubMedia/Расчетная таблица.xlsx
+++ b/GithubMedia/Расчетная таблица.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="Прокачка героя" sheetId="1" r:id="rId1"/>
@@ -453,61 +453,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1999999999999993</c:v>
+                  <c:v>15.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.64</c:v>
+                  <c:v>19.53125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.367999999999999</c:v>
+                  <c:v>24.4140625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.441599999999999</c:v>
+                  <c:v>30.517578125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.929919999999999</c:v>
+                  <c:v>38.14697265625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.915903999999998</c:v>
+                  <c:v>47.6837158203125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.499084799999999</c:v>
+                  <c:v>59.604644775390625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.798901759999996</c:v>
+                  <c:v>74.505805969238281</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.958682111999995</c:v>
+                  <c:v>93.132257461547852</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.150418534399996</c:v>
+                  <c:v>116.41532182693481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44.580502241279987</c:v>
+                  <c:v>145.51915228366852</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>53.49660268953599</c:v>
+                  <c:v>181.89894035458565</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>64.195923227443188</c:v>
+                  <c:v>227.37367544323206</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>77.035107872931817</c:v>
+                  <c:v>284.21709430404007</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>92.44212944751817</c:v>
+                  <c:v>355.27136788005009</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>110.93055533702181</c:v>
+                  <c:v>444.08920985006262</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>133.11666640442616</c:v>
+                  <c:v>555.11151231257827</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>159.7399996853114</c:v>
+                  <c:v>693.88939039072284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -630,61 +630,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2771,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2802,12 +2802,12 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>5*POWER(1.2,A2)</f>
-        <v>6</v>
+        <f>2*5*POWER(1.25,A2)</f>
+        <v>12.5</v>
       </c>
       <c r="C2">
-        <f>A2*D2</f>
-        <v>5</v>
+        <f>D2+A2*D2</f>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -2818,12 +2818,12 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B20" si="0">5*POWER(1.2,A3)</f>
-        <v>7.1999999999999993</v>
+        <f t="shared" ref="B3:B20" si="0">2*5*POWER(1.25,A3)</f>
+        <v>15.625</v>
       </c>
       <c r="C3">
-        <f>A3*D2</f>
-        <v>10</v>
+        <f>D2+A3*D2</f>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2832,11 +2832,11 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>8.64</v>
+        <v>19.53125</v>
       </c>
       <c r="C4">
-        <f>A4*D2</f>
-        <v>15</v>
+        <f>D2+A4*D2</f>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2845,11 +2845,11 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>10.367999999999999</v>
+        <v>24.4140625</v>
       </c>
       <c r="C5">
-        <f>A5*D2</f>
-        <v>20</v>
+        <f>D2+A5*D2</f>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2858,11 +2858,11 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>12.441599999999999</v>
+        <v>30.517578125</v>
       </c>
       <c r="C6">
-        <f>A6*D2</f>
-        <v>25</v>
+        <f>D2+A6*D2</f>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2871,11 +2871,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>14.929919999999999</v>
+        <v>38.14697265625</v>
       </c>
       <c r="C7">
-        <f>A7*D2</f>
-        <v>30</v>
+        <f>D2+A7*D2</f>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2884,11 +2884,11 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>17.915903999999998</v>
+        <v>47.6837158203125</v>
       </c>
       <c r="C8">
-        <f>A8*D2</f>
-        <v>35</v>
+        <f>D2+A8*D2</f>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2897,11 +2897,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>21.499084799999999</v>
+        <v>59.604644775390625</v>
       </c>
       <c r="C9">
-        <f>A9*D2</f>
-        <v>40</v>
+        <f>D2+A9*D2</f>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2910,11 +2910,11 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>25.798901759999996</v>
+        <v>74.505805969238281</v>
       </c>
       <c r="C10">
-        <f>A10*D2</f>
-        <v>45</v>
+        <f>D2+A10*D2</f>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2923,11 +2923,11 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>30.958682111999995</v>
+        <v>93.132257461547852</v>
       </c>
       <c r="C11">
-        <f>A11*D2</f>
-        <v>50</v>
+        <f>D2+A11*D2</f>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2936,11 +2936,11 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>37.150418534399996</v>
+        <v>116.41532182693481</v>
       </c>
       <c r="C12">
-        <f>A12*D2</f>
-        <v>55</v>
+        <f>D2+A12*D2</f>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2949,11 +2949,11 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>44.580502241279987</v>
+        <v>145.51915228366852</v>
       </c>
       <c r="C13">
-        <f>A13*D2</f>
-        <v>60</v>
+        <f>D2+A13*D2</f>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2962,11 +2962,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>53.49660268953599</v>
+        <v>181.89894035458565</v>
       </c>
       <c r="C14">
-        <f>A14*D2</f>
-        <v>65</v>
+        <f>D2+A14*D2</f>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2975,11 +2975,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>64.195923227443188</v>
+        <v>227.37367544323206</v>
       </c>
       <c r="C15">
-        <f>A15*D2</f>
-        <v>70</v>
+        <f>D2+A15*D2</f>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2988,11 +2988,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>77.035107872931817</v>
+        <v>284.21709430404007</v>
       </c>
       <c r="C16">
-        <f>A16*D2</f>
-        <v>75</v>
+        <f>D2+A16*D2</f>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3001,11 +3001,11 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>92.44212944751817</v>
+        <v>355.27136788005009</v>
       </c>
       <c r="C17">
-        <f>A17*D2</f>
-        <v>80</v>
+        <f>D2+A17*D2</f>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3014,11 +3014,11 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>110.93055533702181</v>
+        <v>444.08920985006262</v>
       </c>
       <c r="C18">
-        <f>A18*D2</f>
-        <v>85</v>
+        <f>D2+A18*D2</f>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3027,11 +3027,11 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>133.11666640442616</v>
+        <v>555.11151231257827</v>
       </c>
       <c r="C19">
-        <f>A19*D2</f>
-        <v>90</v>
+        <f>D2+A19*D2</f>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3040,11 +3040,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>159.7399996853114</v>
+        <v>693.88939039072284</v>
       </c>
       <c r="C20">
-        <f>A20*D2</f>
-        <v>95</v>
+        <f>D2+A20*D2</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3058,8 +3058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3228,7 +3228,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3242,7 +3242,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -3250,7 +3250,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3258,7 +3258,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3266,7 +3266,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3274,7 +3274,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3282,7 +3282,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="B8" s="6">
         <f>B10+B12+B14+B16+B18+B20</f>
-        <v>6</v>
+        <v>41.517578125000014</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="B9" s="6">
         <f>B11+B11*AVERAGE(B13, B15, B17, B19, B21)</f>
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="B10" s="4">
         <f>IFERROR(INDEX('Прокачка героя'!B2:B20,MATCH('Расчет прибыли'!B1,'Прокачка героя'!A2:A20,0)), 0)</f>
-        <v>6</v>
+        <v>30.517578125</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="B11" s="4">
         <f>INDEX('Прокачка героя'!C2:C20,MATCH('Расчет прибыли'!B1,'Прокачка героя'!A2:A20,0))</f>
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="B12" s="4">
         <f>IFERROR(INDEX('Покупка объектов'!B2:B11,MATCH('Расчет прибыли'!B2,'Покупка объектов'!A2:A11,0)), 0)</f>
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B13" s="4">
         <f>IFERROR(INDEX('Покупка объектов'!C2:C11,MATCH('Расчет прибыли'!B2,'Покупка объектов'!A2:A11,0)), 0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="B14" s="4">
         <f>IFERROR(INDEX('Покупка объектов'!B2:B11,MATCH('Расчет прибыли'!B3,'Покупка объектов'!A2:A11,0)), 0)</f>
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="B15" s="4">
         <f>IFERROR(INDEX('Покупка объектов'!C2:C11,MATCH('Расчет прибыли'!B3,'Покупка объектов'!A2:A11,0)), 0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="B16" s="4">
         <f>IFERROR(INDEX('Покупка объектов'!B2:B11,MATCH('Расчет прибыли'!B4,'Покупка объектов'!A2:A11,0)), 0)</f>
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="B17" s="4">
         <f>IFERROR(INDEX('Покупка объектов'!C2:C11,MATCH('Расчет прибыли'!B4,'Покупка объектов'!A2:A11,0)), 0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="B18" s="4">
         <f>IFERROR(INDEX('Покупка объектов'!B2:B11,MATCH('Расчет прибыли'!B5,'Покупка объектов'!A2:A11,0)), 0)</f>
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="B19" s="4">
         <f>IFERROR(INDEX('Покупка объектов'!C2:C11,MATCH('Расчет прибыли'!B5,'Покупка объектов'!A2:A11,0)), 0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B20" s="4">
         <f>IFERROR(INDEX('Покупка объектов'!B2:B11,MATCH('Расчет прибыли'!B6,'Покупка объектов'!A2:A11,0)), 0)</f>
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="B21" s="4">
         <f>IFERROR(INDEX('Покупка объектов'!C2:C11,MATCH('Расчет прибыли'!B6,'Покупка объектов'!A2:A11,0)), 0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
   </sheetData>
